--- a/third.xlsx
+++ b/third.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c1e26af32ed8517/Desktop/git/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manohar M\OneDrive\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC1048A7C19E5FD85ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0AE4686-8B94-4E34-B954-D4EF5DDCCD18}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E5D7D53-797D-4A9E-AFBC-AEF9D446398D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>manohar</t>
   </si>
   <si>
     <t xml:space="preserve">dkjfdkjfakj </t>
+  </si>
+  <si>
+    <t>dfdsfsaf</t>
+  </si>
+  <si>
+    <t>dfsfsa</t>
+  </si>
+  <si>
+    <t>dfsadfdsafas</t>
   </si>
 </sst>
 </file>
@@ -348,27 +357,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
